--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_ĐL Anh Trực.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_ĐL Anh Trực.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="72">
   <si>
     <t>STT</t>
   </si>
@@ -253,6 +253,21 @@
   </si>
   <si>
     <t>Còn BH</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t>125.212.203.250,21083</t>
+  </si>
+  <si>
+    <t>Đổi mới</t>
+  </si>
+  <si>
+    <t>ĐM</t>
+  </si>
+  <si>
+    <t>Thể</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1071,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1269,7 +1284,9 @@
       <c r="B6" s="61">
         <v>44837</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44838</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>64</v>
       </c>
@@ -1281,16 +1298,30 @@
         <v>66</v>
       </c>
       <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
+      <c r="I6" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>67</v>
+      </c>
       <c r="K6" s="65"/>
       <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="66" t="s">
+        <v>69</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
       <c r="U6" s="78" t="s">
@@ -1737,7 +1768,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -1982,7 +2013,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -2238,7 +2269,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_ĐL Anh Trực.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_ĐL Anh Trực.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="73">
   <si>
     <t>STT</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>Thể</t>
+  </si>
+  <si>
+    <t>IMEI tb mới : WP21110052S00626/0032000C63</t>
   </si>
 </sst>
 </file>
@@ -719,30 +722,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -760,6 +739,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1070,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:G6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1103,41 +1106,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1182,58 +1185,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1258,23 +1261,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1285,7 +1288,7 @@
         <v>44837</v>
       </c>
       <c r="C6" s="61">
-        <v>44838</v>
+        <v>44839</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>64</v>
@@ -1297,7 +1300,9 @@
       <c r="G6" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="62" t="s">
+        <v>72</v>
+      </c>
       <c r="I6" s="63" t="s">
         <v>68</v>
       </c>
@@ -1324,7 +1329,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1355,7 +1360,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1384,7 +1389,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1413,7 +1418,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1442,7 +1447,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1471,7 +1476,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1500,7 +1505,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1531,7 +1536,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1560,7 +1565,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1589,7 +1594,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1618,7 +1623,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3334,6 +3339,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3345,13 +3357,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3395,39 +3400,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3472,58 +3477,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3548,23 +3553,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3590,7 +3595,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3621,7 +3626,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3650,7 +3655,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3679,7 +3684,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3708,7 +3713,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3737,7 +3742,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3766,7 +3771,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3797,7 +3802,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3826,7 +3831,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3855,7 +3860,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3884,7 +3889,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5600,13 +5605,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5618,6 +5616,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5661,39 +5666,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5738,58 +5743,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5814,23 +5819,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5856,7 +5861,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5887,7 +5892,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5916,7 +5921,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5945,7 +5950,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5974,7 +5979,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6003,7 +6008,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6032,7 +6037,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6063,7 +6068,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6092,7 +6097,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6121,7 +6126,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6150,7 +6155,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7866,13 +7871,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7884,6 +7882,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7927,39 +7932,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8004,58 +8009,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8080,23 +8085,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8122,7 +8127,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8153,7 +8158,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8182,7 +8187,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8211,7 +8216,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8240,7 +8245,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8269,7 +8274,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8298,7 +8303,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8329,7 +8334,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8358,7 +8363,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8387,7 +8392,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8416,7 +8421,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10132,13 +10137,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10150,6 +10148,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10193,39 +10198,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10270,58 +10275,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10346,23 +10351,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10388,7 +10393,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10419,7 +10424,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10448,7 +10453,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10477,7 +10482,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10506,7 +10511,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10535,7 +10540,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10564,7 +10569,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10595,7 +10600,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10624,7 +10629,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10653,7 +10658,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10682,7 +10687,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12398,13 +12403,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12416,6 +12414,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12459,39 +12464,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12536,58 +12541,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12612,23 +12617,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12654,7 +12659,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12685,7 +12690,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12714,7 +12719,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12743,7 +12748,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12772,7 +12777,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12801,7 +12806,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12830,7 +12835,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12861,7 +12866,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12890,7 +12895,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12919,7 +12924,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12948,7 +12953,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14664,13 +14669,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14682,6 +14680,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14725,39 +14730,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14802,58 +14807,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14878,23 +14883,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14920,7 +14925,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14951,7 +14956,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14980,7 +14985,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15009,7 +15014,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15038,7 +15043,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15067,7 +15072,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15096,7 +15101,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15127,7 +15132,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15156,7 +15161,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15185,7 +15190,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15214,7 +15219,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16930,13 +16935,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16948,6 +16946,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16991,39 +16996,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17068,58 +17073,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17144,23 +17149,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17186,7 +17191,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17217,7 +17222,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17246,7 +17251,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17275,7 +17280,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17304,7 +17309,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17333,7 +17338,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17362,7 +17367,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17393,7 +17398,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17422,7 +17427,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17451,7 +17456,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17480,7 +17485,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19196,13 +19201,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19214,6 +19212,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19257,39 +19262,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19334,58 +19339,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19410,23 +19415,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19452,7 +19457,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19483,7 +19488,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19512,7 +19517,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19541,7 +19546,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19570,7 +19575,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19599,7 +19604,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19628,7 +19633,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19659,7 +19664,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19688,7 +19693,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19717,7 +19722,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19746,7 +19751,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20977,6 +20982,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -20988,13 +21000,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_ĐL Anh Trực.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_ĐL Anh Trực.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="75">
   <si>
     <t>STT</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>IMEI tb mới : WP21110052S00626/0032000C63</t>
+  </si>
+  <si>
+    <t>WP21120135S02910/0032002C23</t>
+  </si>
+  <si>
+    <t>WP21120135S02922/0032001F5E</t>
   </si>
 </sst>
 </file>
@@ -722,6 +728,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -739,30 +769,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1074,7 +1080,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:H6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1106,41 +1112,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1185,58 +1191,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1261,23 +1267,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1329,7 +1335,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1341,12 +1347,20 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="61">
+        <v>44852</v>
+      </c>
       <c r="C7" s="54"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
+      <c r="D7" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H7" s="37"/>
       <c r="I7" s="51"/>
       <c r="J7" s="1"/>
@@ -1360,7 +1374,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1370,13 +1384,21 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61"/>
+      <c r="B8" s="61">
+        <v>44852</v>
+      </c>
       <c r="C8" s="54"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="62"/>
+      <c r="D8" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="37"/>
       <c r="I8" s="51"/>
       <c r="J8" s="1"/>
       <c r="K8" s="38"/>
@@ -1389,7 +1411,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1418,7 +1440,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1447,7 +1469,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1476,7 +1498,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1505,7 +1527,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1536,7 +1558,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1565,7 +1587,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1594,7 +1616,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1623,7 +1645,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3339,13 +3361,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3357,6 +3372,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3400,39 +3422,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3477,58 +3499,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3553,23 +3575,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3595,7 +3617,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3626,7 +3648,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3655,7 +3677,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3684,7 +3706,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3713,7 +3735,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3742,7 +3764,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3771,7 +3793,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3802,7 +3824,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3831,7 +3853,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3860,7 +3882,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3889,7 +3911,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5605,6 +5627,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5616,13 +5645,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5666,39 +5688,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5743,58 +5765,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5819,23 +5841,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5861,7 +5883,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5892,7 +5914,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5921,7 +5943,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5950,7 +5972,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5979,7 +6001,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6008,7 +6030,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6037,7 +6059,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6068,7 +6090,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6097,7 +6119,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6126,7 +6148,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6155,7 +6177,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7871,6 +7893,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7882,13 +7911,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7932,39 +7954,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8009,58 +8031,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8085,23 +8107,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8127,7 +8149,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8158,7 +8180,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8187,7 +8209,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8216,7 +8238,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8245,7 +8267,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8274,7 +8296,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8303,7 +8325,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8334,7 +8356,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8363,7 +8385,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8392,7 +8414,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8421,7 +8443,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10137,6 +10159,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10148,13 +10177,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10198,39 +10220,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10275,58 +10297,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10351,23 +10373,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10393,7 +10415,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10424,7 +10446,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10453,7 +10475,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10482,7 +10504,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10511,7 +10533,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10540,7 +10562,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10569,7 +10591,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10600,7 +10622,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10629,7 +10651,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10658,7 +10680,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10687,7 +10709,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12403,6 +12425,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12414,13 +12443,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12464,39 +12486,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12541,58 +12563,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12617,23 +12639,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12659,7 +12681,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12690,7 +12712,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12719,7 +12741,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12748,7 +12770,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12777,7 +12799,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12806,7 +12828,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12835,7 +12857,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12866,7 +12888,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12895,7 +12917,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12924,7 +12946,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12953,7 +12975,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14669,6 +14691,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14680,13 +14709,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14730,39 +14752,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14807,58 +14829,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14883,23 +14905,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14925,7 +14947,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14956,7 +14978,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14985,7 +15007,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15014,7 +15036,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15043,7 +15065,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15072,7 +15094,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15101,7 +15123,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15132,7 +15154,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15161,7 +15183,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15190,7 +15212,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15219,7 +15241,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16935,6 +16957,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16946,13 +16975,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16996,39 +17018,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17073,58 +17095,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17149,23 +17171,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17191,7 +17213,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17222,7 +17244,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17251,7 +17273,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17280,7 +17302,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17309,7 +17331,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17338,7 +17360,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17367,7 +17389,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17398,7 +17420,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17427,7 +17449,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17456,7 +17478,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17485,7 +17507,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19201,6 +19223,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19212,13 +19241,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19262,39 +19284,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19339,58 +19361,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19415,23 +19437,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19457,7 +19479,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19488,7 +19510,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19517,7 +19539,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19546,7 +19568,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19575,7 +19597,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19604,7 +19626,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19633,7 +19655,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19664,7 +19686,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19693,7 +19715,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19722,7 +19744,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19751,7 +19773,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20982,13 +21004,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21000,6 +21015,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_ĐL Anh Trực.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_ĐL Anh Trực.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>WP21120135S02922/0032001F5E</t>
+  </si>
+  <si>
+    <t>Thiết bị không nhận sim</t>
+  </si>
+  <si>
+    <t>SIM</t>
   </si>
 </sst>
 </file>
@@ -728,30 +734,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -769,6 +751,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1079,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1112,41 +1118,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1191,58 +1197,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1267,23 +1273,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1335,7 +1341,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1362,19 +1368,33 @@
         <v>66</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="K7" s="55"/>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>69</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1399,7 +1419,9 @@
         <v>66</v>
       </c>
       <c r="H8" s="37"/>
-      <c r="I8" s="51"/>
+      <c r="I8" s="63" t="s">
+        <v>68</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="38"/>
       <c r="L8" s="39"/>
@@ -1411,7 +1433,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1440,7 +1462,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1469,7 +1491,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1498,7 +1520,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1527,7 +1549,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1558,7 +1580,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1587,7 +1609,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1616,7 +1638,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1645,7 +1667,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1795,7 +1817,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -3361,6 +3383,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3372,13 +3401,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3422,39 +3444,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3499,58 +3521,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3575,23 +3597,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3617,7 +3639,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3648,7 +3670,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3677,7 +3699,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3706,7 +3728,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3735,7 +3757,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3764,7 +3786,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3793,7 +3815,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3824,7 +3846,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3853,7 +3875,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3882,7 +3904,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3911,7 +3933,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5627,13 +5649,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5645,6 +5660,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5688,39 +5710,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5765,58 +5787,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5841,23 +5863,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5883,7 +5905,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5914,7 +5936,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5943,7 +5965,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5972,7 +5994,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6001,7 +6023,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6030,7 +6052,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6059,7 +6081,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6090,7 +6112,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6119,7 +6141,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6148,7 +6170,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6177,7 +6199,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7893,13 +7915,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7911,6 +7926,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7954,39 +7976,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8031,58 +8053,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8107,23 +8129,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8149,7 +8171,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8180,7 +8202,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8209,7 +8231,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8238,7 +8260,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8267,7 +8289,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8296,7 +8318,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8325,7 +8347,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8356,7 +8378,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8385,7 +8407,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8414,7 +8436,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8443,7 +8465,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10159,13 +10181,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10177,6 +10192,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10220,39 +10242,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10297,58 +10319,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10373,23 +10395,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10415,7 +10437,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10446,7 +10468,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10475,7 +10497,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10504,7 +10526,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10533,7 +10555,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10562,7 +10584,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10591,7 +10613,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10622,7 +10644,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10651,7 +10673,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10680,7 +10702,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10709,7 +10731,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12425,13 +12447,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12443,6 +12458,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12486,39 +12508,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12563,58 +12585,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12639,23 +12661,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12681,7 +12703,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12712,7 +12734,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12741,7 +12763,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12770,7 +12792,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12799,7 +12821,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12828,7 +12850,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12857,7 +12879,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12888,7 +12910,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12917,7 +12939,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12946,7 +12968,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12975,7 +12997,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14691,13 +14713,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14709,6 +14724,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14752,39 +14774,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14829,58 +14851,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14905,23 +14927,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14947,7 +14969,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14978,7 +15000,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15007,7 +15029,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15036,7 +15058,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15065,7 +15087,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15094,7 +15116,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15123,7 +15145,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15154,7 +15176,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15183,7 +15205,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15212,7 +15234,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15241,7 +15263,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16957,13 +16979,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16975,6 +16990,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17018,39 +17040,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17095,58 +17117,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17171,23 +17193,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17213,7 +17235,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17244,7 +17266,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17273,7 +17295,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17302,7 +17324,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17331,7 +17353,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17360,7 +17382,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17389,7 +17411,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17420,7 +17442,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17449,7 +17471,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17478,7 +17500,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17507,7 +17529,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19223,13 +19245,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19241,6 +19256,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19284,39 +19306,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19361,58 +19383,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="78" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="91" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="78" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19437,23 +19459,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="78"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19479,7 +19501,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="86" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19510,7 +19532,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="87"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19539,7 +19561,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="87"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19568,7 +19590,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="87"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19597,7 +19619,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19626,7 +19648,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="87"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19655,7 +19677,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="86" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19686,7 +19708,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="87"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19715,7 +19737,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="87"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19744,7 +19766,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="87"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19773,7 +19795,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21004,6 +21026,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21015,13 +21044,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_ĐL Anh Trực.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_ĐL Anh Trực.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="80">
   <si>
     <t>STT</t>
   </si>
@@ -283,6 +283,15 @@
   </si>
   <si>
     <t>SIM</t>
+  </si>
+  <si>
+    <t>ID Tb mới : WP21120135S02386/0032002196</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>BT</t>
   </si>
 </sst>
 </file>
@@ -1085,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1356,7 +1365,9 @@
       <c r="B7" s="61">
         <v>44852</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44854</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>64</v>
       </c>
@@ -1367,7 +1378,9 @@
       <c r="G7" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="37"/>
+      <c r="H7" s="37" t="s">
+        <v>77</v>
+      </c>
       <c r="I7" s="63" t="s">
         <v>68</v>
       </c>
@@ -1407,7 +1420,9 @@
       <c r="B8" s="61">
         <v>44852</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="54">
+        <v>44854</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>64</v>
       </c>
@@ -1425,12 +1440,22 @@
       <c r="J8" s="1"/>
       <c r="K8" s="38"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>78</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
       <c r="U8" s="87"/>
@@ -1785,7 +1810,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2286,7 +2311,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -2318,7 +2343,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
